--- a/excel-beginner-tutorial_solution.xlsx
+++ b/excel-beginner-tutorial_solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26926"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects\microsoft-excel-tutorial-beginner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E5DC5-8ED7-41F0-81FD-F8E70EE90722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F818845-64D3-40CA-8CE0-DC7C395B7C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="8" activeTab="16" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="976">
   <si>
     <t>Reg No.</t>
   </si>
@@ -3003,28 +3003,10 @@
     <t>/</t>
   </si>
   <si>
-    <t>=2+3</t>
-  </si>
-  <si>
-    <t>=2*3</t>
-  </si>
-  <si>
-    <t>=3-2</t>
-  </si>
-  <si>
-    <t>=4/2</t>
-  </si>
-  <si>
     <t>^</t>
   </si>
   <si>
     <t>()</t>
-  </si>
-  <si>
-    <t>=2^3</t>
-  </si>
-  <si>
-    <t>=(3+2) * 10</t>
   </si>
   <si>
     <t>UserID</t>
@@ -6321,9 +6303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6361,7 +6343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6467,7 +6449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6609,7 +6591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6617,17 +6599,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA1A12F-1E41-41A1-853B-53EC10CAE414}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X2" sqref="X1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="11" style="11" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="23" width="9.140625" style="11" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="11" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="40.5" x14ac:dyDescent="0.7">
@@ -6635,6 +6620,7 @@
         <v>256</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
     </row>
@@ -6668,6 +6654,121 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="18" x14ac:dyDescent="0.3"/>
+    <row r="19" x14ac:dyDescent="0.3"/>
+    <row r="20" x14ac:dyDescent="0.3"/>
+    <row r="21" x14ac:dyDescent="0.3"/>
+    <row r="22" x14ac:dyDescent="0.3"/>
+    <row r="23" x14ac:dyDescent="0.3"/>
+    <row r="24" x14ac:dyDescent="0.3"/>
+    <row r="25" x14ac:dyDescent="0.3"/>
+    <row r="26" x14ac:dyDescent="0.3"/>
+    <row r="27" x14ac:dyDescent="0.3"/>
+    <row r="28" x14ac:dyDescent="0.3"/>
+    <row r="29" x14ac:dyDescent="0.3"/>
+    <row r="30" x14ac:dyDescent="0.3"/>
+    <row r="31" x14ac:dyDescent="0.3"/>
+    <row r="32" x14ac:dyDescent="0.3"/>
+    <row r="33" x14ac:dyDescent="0.3"/>
+    <row r="34" x14ac:dyDescent="0.3"/>
+    <row r="35" x14ac:dyDescent="0.3"/>
+    <row r="36" x14ac:dyDescent="0.3"/>
+    <row r="37" x14ac:dyDescent="0.3"/>
+    <row r="38" x14ac:dyDescent="0.3"/>
+    <row r="39" x14ac:dyDescent="0.3"/>
+    <row r="40" x14ac:dyDescent="0.3"/>
+    <row r="41" x14ac:dyDescent="0.3"/>
+    <row r="42" x14ac:dyDescent="0.3"/>
+    <row r="43" x14ac:dyDescent="0.3"/>
+    <row r="44" x14ac:dyDescent="0.3"/>
+    <row r="45" x14ac:dyDescent="0.3"/>
+    <row r="46" x14ac:dyDescent="0.3"/>
+    <row r="47" x14ac:dyDescent="0.3"/>
+    <row r="48" x14ac:dyDescent="0.3"/>
+    <row r="49" x14ac:dyDescent="0.3"/>
+    <row r="50" x14ac:dyDescent="0.3"/>
+    <row r="51" x14ac:dyDescent="0.3"/>
+    <row r="52" x14ac:dyDescent="0.3"/>
+    <row r="53" x14ac:dyDescent="0.3"/>
+    <row r="54" x14ac:dyDescent="0.3"/>
+    <row r="55" x14ac:dyDescent="0.3"/>
+    <row r="56" x14ac:dyDescent="0.3"/>
+    <row r="57" x14ac:dyDescent="0.3"/>
+    <row r="58" x14ac:dyDescent="0.3"/>
+    <row r="59" x14ac:dyDescent="0.3"/>
+    <row r="60" x14ac:dyDescent="0.3"/>
+    <row r="61" x14ac:dyDescent="0.3"/>
+    <row r="62" x14ac:dyDescent="0.3"/>
+    <row r="63" x14ac:dyDescent="0.3"/>
+    <row r="64" x14ac:dyDescent="0.3"/>
+    <row r="65" x14ac:dyDescent="0.3"/>
+    <row r="66" x14ac:dyDescent="0.3"/>
+    <row r="67" x14ac:dyDescent="0.3"/>
+    <row r="68" x14ac:dyDescent="0.3"/>
+    <row r="69" x14ac:dyDescent="0.3"/>
+    <row r="70" x14ac:dyDescent="0.3"/>
+    <row r="71" x14ac:dyDescent="0.3"/>
+    <row r="72" x14ac:dyDescent="0.3"/>
+    <row r="73" x14ac:dyDescent="0.3"/>
+    <row r="74" x14ac:dyDescent="0.3"/>
+    <row r="75" x14ac:dyDescent="0.3"/>
+    <row r="76" x14ac:dyDescent="0.3"/>
+    <row r="77" x14ac:dyDescent="0.3"/>
+    <row r="78" x14ac:dyDescent="0.3"/>
+    <row r="79" x14ac:dyDescent="0.3"/>
+    <row r="80" x14ac:dyDescent="0.3"/>
+    <row r="81" x14ac:dyDescent="0.3"/>
+    <row r="82" x14ac:dyDescent="0.3"/>
+    <row r="83" x14ac:dyDescent="0.3"/>
+    <row r="84" x14ac:dyDescent="0.3"/>
+    <row r="85" x14ac:dyDescent="0.3"/>
+    <row r="86" x14ac:dyDescent="0.3"/>
+    <row r="87" x14ac:dyDescent="0.3"/>
+    <row r="88" x14ac:dyDescent="0.3"/>
+    <row r="89" x14ac:dyDescent="0.3"/>
+    <row r="90" x14ac:dyDescent="0.3"/>
+    <row r="91" x14ac:dyDescent="0.3"/>
+    <row r="92" x14ac:dyDescent="0.3"/>
+    <row r="93" x14ac:dyDescent="0.3"/>
+    <row r="94" x14ac:dyDescent="0.3"/>
+    <row r="95" x14ac:dyDescent="0.3"/>
+    <row r="96" x14ac:dyDescent="0.3"/>
+    <row r="97" x14ac:dyDescent="0.3"/>
+    <row r="98" x14ac:dyDescent="0.3"/>
+    <row r="99" x14ac:dyDescent="0.3"/>
+    <row r="100" x14ac:dyDescent="0.3"/>
+    <row r="101" x14ac:dyDescent="0.3"/>
+    <row r="102" x14ac:dyDescent="0.3"/>
+    <row r="103" x14ac:dyDescent="0.3"/>
+    <row r="104" x14ac:dyDescent="0.3"/>
+    <row r="105" x14ac:dyDescent="0.3"/>
+    <row r="106" x14ac:dyDescent="0.3"/>
+    <row r="107" x14ac:dyDescent="0.3"/>
+    <row r="108" x14ac:dyDescent="0.3"/>
+    <row r="109" x14ac:dyDescent="0.3"/>
+    <row r="110" x14ac:dyDescent="0.3"/>
+    <row r="111" x14ac:dyDescent="0.3"/>
+    <row r="112" x14ac:dyDescent="0.3"/>
+    <row r="113" x14ac:dyDescent="0.3"/>
+    <row r="114" x14ac:dyDescent="0.3"/>
+    <row r="115" x14ac:dyDescent="0.3"/>
+    <row r="116" x14ac:dyDescent="0.3"/>
+    <row r="117" x14ac:dyDescent="0.3"/>
+    <row r="118" x14ac:dyDescent="0.3"/>
+    <row r="119" x14ac:dyDescent="0.3"/>
+    <row r="120" x14ac:dyDescent="0.3"/>
+    <row r="121" x14ac:dyDescent="0.3"/>
+    <row r="122" x14ac:dyDescent="0.3"/>
+    <row r="123" x14ac:dyDescent="0.3"/>
+    <row r="124" x14ac:dyDescent="0.3"/>
+    <row r="125" x14ac:dyDescent="0.3"/>
+    <row r="126" x14ac:dyDescent="0.3"/>
+    <row r="127" x14ac:dyDescent="0.3"/>
+    <row r="128" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12637,7 +12738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59B5EA-5F36-4506-9B80-2736CCDF45D1}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15549,23 +15652,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968705CC-026E-4DAA-B41B-06B4A23E9192}">
-  <dimension ref="C5:I9"/>
+  <dimension ref="C1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="15"/>
+    <col min="1" max="2" width="9.140625" style="15" customWidth="1"/>
     <col min="3" max="3" width="20" style="15" customWidth="1"/>
     <col min="4" max="4" width="10" style="15" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="15"/>
+    <col min="6" max="6" width="9.140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="15"/>
+    <col min="8" max="8" width="9.140625" style="15" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="10" max="10" width="9.140625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="15" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="20" t="s">
         <v>260</v>
@@ -15639,6 +15749,19 @@
         <v>#REF!</v>
       </c>
     </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="18" x14ac:dyDescent="0.3"/>
+    <row r="19" x14ac:dyDescent="0.3"/>
+    <row r="20" x14ac:dyDescent="0.3"/>
+    <row r="21" x14ac:dyDescent="0.3"/>
+    <row r="22" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15648,19 +15771,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0700C252-1262-4999-866C-FB6660C75853}">
-  <dimension ref="A6:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>962</v>
@@ -15682,8 +15812,9 @@
       <c r="B7" t="s">
         <v>966</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>973</v>
+      <c r="C7" s="4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D7)</f>
+        <v>=2+3</v>
       </c>
       <c r="D7">
         <f>2+3</f>
@@ -15697,8 +15828,9 @@
       <c r="B8" t="s">
         <v>968</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>975</v>
+      <c r="C8" s="4" t="str">
+        <f t="shared" ref="C8:C10" ca="1" si="0">_xlfn.FORMULATEXT(D8)</f>
+        <v>=3-2</v>
       </c>
       <c r="D8">
         <f>3-2</f>
@@ -15712,8 +15844,9 @@
       <c r="B9" t="s">
         <v>970</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>974</v>
+      <c r="C9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=2*3</v>
       </c>
       <c r="D9">
         <f>2*3</f>
@@ -15727,14 +15860,19 @@
       <c r="B10" t="s">
         <v>972</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>976</v>
+      <c r="C10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=4/2</v>
       </c>
       <c r="D10">
         <f>4/2</f>
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>963</v>
@@ -15748,10 +15886,11 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>977</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>979</v>
+        <v>973</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C16)</f>
+        <v>=2^3</v>
       </c>
       <c r="C16">
         <f>2^3</f>
@@ -15760,16 +15899,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>978</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>980</v>
+        <v>974</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C17)</f>
+        <v>=(3+2) * 10</v>
       </c>
       <c r="C17">
         <f>(3+2) * 10</f>
         <v>50</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15781,7 +15922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F49360-AC51-4238-99A6-81570E6697CB}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18477,7 +18618,7 @@
         <v>John Calhoun</v>
       </c>
       <c r="M6" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>168</v>
@@ -18845,18 +18986,18 @@
       </c>
       <c r="K2">
         <f ca="1">DATEDIF(G2,TODAY(),"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <f ca="1">ROUND(YEARFRAC(G2,$O$2),2)</f>
-        <v>19.940000000000001</v>
+        <v>20.3</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>955</v>
       </c>
       <c r="O2" s="37">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45204</v>
       </c>
       <c r="V2" s="4"/>
     </row>
@@ -18895,11 +19036,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" ca="1" si="2">DATEDIF(G3,TODAY(),"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" ca="1" si="3">ROUND(YEARFRAC(G3,$O$2),2)</f>
-        <v>17.68</v>
+        <v>18.04</v>
       </c>
       <c r="V3" s="4"/>
     </row>
@@ -18942,7 +19083,7 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="3"/>
-        <v>22.37</v>
+        <v>22.73</v>
       </c>
       <c r="V4" s="4"/>
     </row>
@@ -18985,7 +19126,7 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="3"/>
-        <v>17.399999999999999</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="V5" s="4"/>
     </row>
@@ -19028,7 +19169,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="3"/>
-        <v>16.010000000000002</v>
+        <v>16.37</v>
       </c>
       <c r="V6" s="4"/>
     </row>
@@ -19067,11 +19208,11 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="3"/>
-        <v>17.920000000000002</v>
+        <v>18.28</v>
       </c>
       <c r="V7" s="4"/>
     </row>
@@ -19114,7 +19255,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="3"/>
-        <v>17.309999999999999</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="V8" s="4"/>
     </row>
@@ -19157,7 +19298,7 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="3"/>
-        <v>16.3</v>
+        <v>16.66</v>
       </c>
       <c r="V9" s="4"/>
     </row>
@@ -19196,11 +19337,11 @@
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="3"/>
-        <v>20.78</v>
+        <v>21.13</v>
       </c>
       <c r="V10" s="4"/>
     </row>
@@ -19239,11 +19380,11 @@
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="3"/>
-        <v>20.78</v>
+        <v>21.14</v>
       </c>
       <c r="V11" s="4"/>
     </row>
@@ -19282,11 +19423,11 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="3"/>
-        <v>17.66</v>
+        <v>18.02</v>
       </c>
       <c r="V12" s="4"/>
     </row>
@@ -19325,11 +19466,11 @@
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="3"/>
-        <v>17.66</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="V13" s="4"/>
     </row>
@@ -19372,7 +19513,7 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
-        <v>17.22</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="V14" s="4"/>
     </row>
@@ -19415,7 +19556,7 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>15.47</v>
+        <v>15.83</v>
       </c>
       <c r="V15" s="4"/>
     </row>
@@ -19458,7 +19599,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="3"/>
-        <v>20.47</v>
+        <v>20.83</v>
       </c>
       <c r="V16" s="4"/>
     </row>
@@ -19501,7 +19642,7 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="3"/>
-        <v>20.02</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -19543,7 +19684,7 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="3"/>
-        <v>17.420000000000002</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -19581,11 +19722,11 @@
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="3"/>
-        <v>17.84</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -19627,7 +19768,7 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="3"/>
-        <v>16.53</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -19665,11 +19806,11 @@
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="3"/>
-        <v>15.79</v>
+        <v>16.149999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -19707,11 +19848,11 @@
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="3"/>
-        <v>18.86</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -19753,7 +19894,7 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="3"/>
-        <v>18.13</v>
+        <v>18.489999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -19795,7 +19936,7 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="3"/>
-        <v>20.07</v>
+        <v>20.43</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -19837,7 +19978,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="3"/>
-        <v>17.63</v>
+        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -19879,7 +20020,7 @@
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="3"/>
-        <v>15.53</v>
+        <v>15.89</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -19917,11 +20058,11 @@
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="3"/>
-        <v>17.86</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -19959,11 +20100,11 @@
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="3"/>
-        <v>16.66</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -20005,7 +20146,7 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="3"/>
-        <v>16.37</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -20047,7 +20188,7 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="3"/>
-        <v>15.22</v>
+        <v>15.58</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -20085,11 +20226,11 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="3"/>
-        <v>17.77</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -20131,7 +20272,7 @@
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="3"/>
-        <v>17.57</v>
+        <v>17.93</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -20173,7 +20314,7 @@
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="3"/>
-        <v>18.28</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -20215,7 +20356,7 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="3"/>
-        <v>16.13</v>
+        <v>16.489999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -20253,11 +20394,11 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="3"/>
-        <v>18.95</v>
+        <v>19.309999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -20295,11 +20436,11 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="3"/>
-        <v>16.75</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -20341,7 +20482,7 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="3"/>
-        <v>15.46</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -20383,7 +20524,7 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="3"/>
-        <v>15.31</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -20421,11 +20562,11 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="3"/>
-        <v>19.87</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -20467,7 +20608,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="3"/>
-        <v>17.579999999999998</v>
+        <v>17.940000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -20509,7 +20650,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="3"/>
-        <v>17.29</v>
+        <v>17.649999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -20551,7 +20692,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="3"/>
-        <v>17.14</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -20593,7 +20734,7 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="3"/>
-        <v>19.61</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -20635,7 +20776,7 @@
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="3"/>
-        <v>18.329999999999998</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -20677,7 +20818,7 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="3"/>
-        <v>17.2</v>
+        <v>17.559999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -20715,11 +20856,11 @@
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="3"/>
-        <v>16.88</v>
+        <v>17.239999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -20757,11 +20898,11 @@
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="3"/>
-        <v>18.649999999999999</v>
+        <v>19.010000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -20803,7 +20944,7 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="3"/>
-        <v>18.39</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -20845,7 +20986,7 @@
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="3"/>
-        <v>18.21</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -20887,7 +21028,7 @@
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="3"/>
-        <v>15.61</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -20929,7 +21070,7 @@
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="3"/>
-        <v>15.33</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -20971,7 +21112,7 @@
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="3"/>
-        <v>18.32</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -21013,7 +21154,7 @@
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="3"/>
-        <v>18.170000000000002</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -21051,11 +21192,11 @@
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="3"/>
-        <v>17.77</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -21097,7 +21238,7 @@
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="3"/>
-        <v>17.16</v>
+        <v>17.510000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -21139,7 +21280,7 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="3"/>
-        <v>16.46</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -21181,7 +21322,7 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="3"/>
-        <v>15.51</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -21223,7 +21364,7 @@
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="3"/>
-        <v>19.32</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -21265,7 +21406,7 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="3"/>
-        <v>19.23</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -21303,11 +21444,11 @@
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="3"/>
-        <v>18.82</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -21349,7 +21490,7 @@
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="3"/>
-        <v>18.21</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -21391,7 +21532,7 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="3"/>
-        <v>17.45</v>
+        <v>17.809999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -21433,7 +21574,7 @@
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="3"/>
-        <v>16.559999999999999</v>
+        <v>16.920000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -21475,7 +21616,7 @@
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="3"/>
-        <v>17.54</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -21517,7 +21658,7 @@
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="3"/>
-        <v>16.190000000000001</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -21559,7 +21700,7 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="3"/>
-        <v>15.34</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -21601,7 +21742,7 @@
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L108" ca="1" si="7">ROUND(YEARFRAC(G67,$O$2),2)</f>
-        <v>15.26</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -21643,7 +21784,7 @@
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="7"/>
-        <v>15.17</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -21685,7 +21826,7 @@
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="7"/>
-        <v>15.1</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -21727,7 +21868,7 @@
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="7"/>
-        <v>18.21</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -21769,7 +21910,7 @@
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="7"/>
-        <v>17.18</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -21811,7 +21952,7 @@
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="7"/>
-        <v>17.34</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -21853,7 +21994,7 @@
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="7"/>
-        <v>16.260000000000002</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -21895,7 +22036,7 @@
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="7"/>
-        <v>16.170000000000002</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -21937,7 +22078,7 @@
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="7"/>
-        <v>15.1</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -21979,7 +22120,7 @@
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="7"/>
-        <v>19.04</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -22021,7 +22162,7 @@
       </c>
       <c r="L77">
         <f t="shared" ca="1" si="7"/>
-        <v>18.190000000000001</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -22063,7 +22204,7 @@
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="7"/>
-        <v>17.170000000000002</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -22105,7 +22246,7 @@
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="7"/>
-        <v>17.09</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -22147,7 +22288,7 @@
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="7"/>
-        <v>16.010000000000002</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -22189,7 +22330,7 @@
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="7"/>
-        <v>15.39</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -22231,7 +22372,7 @@
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="7"/>
-        <v>17.34</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -22273,7 +22414,7 @@
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="7"/>
-        <v>17.260000000000002</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -22311,11 +22452,11 @@
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="7"/>
-        <v>15.93</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -22357,7 +22498,7 @@
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="7"/>
-        <v>15.31</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -22399,7 +22540,7 @@
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="7"/>
-        <v>19.329999999999998</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -22441,7 +22582,7 @@
       </c>
       <c r="L87">
         <f t="shared" ca="1" si="7"/>
-        <v>18.27</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -22479,11 +22620,11 @@
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L88">
         <f t="shared" ca="1" si="7"/>
-        <v>16.920000000000002</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -22525,7 +22666,7 @@
       </c>
       <c r="L89">
         <f t="shared" ca="1" si="7"/>
-        <v>16.3</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -22563,11 +22704,11 @@
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L90">
         <f t="shared" ca="1" si="7"/>
-        <v>17.95</v>
+        <v>18.309999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -22605,11 +22746,11 @@
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L91">
         <f t="shared" ca="1" si="7"/>
-        <v>17.79</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -22647,11 +22788,11 @@
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L92">
         <f t="shared" ca="1" si="7"/>
-        <v>16.88</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -22693,7 +22834,7 @@
       </c>
       <c r="L93">
         <f t="shared" ca="1" si="7"/>
-        <v>15.44</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -22735,7 +22876,7 @@
       </c>
       <c r="L94">
         <f t="shared" ca="1" si="7"/>
-        <v>19.309999999999999</v>
+        <v>19.670000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -22777,7 +22918,7 @@
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="7"/>
-        <v>18.23</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -22815,11 +22956,11 @@
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L96">
         <f t="shared" ca="1" si="7"/>
-        <v>16.899999999999999</v>
+        <v>17.260000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -22861,7 +23002,7 @@
       </c>
       <c r="L97">
         <f t="shared" ca="1" si="7"/>
-        <v>16.190000000000001</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -22903,7 +23044,7 @@
       </c>
       <c r="L98">
         <f t="shared" ca="1" si="7"/>
-        <v>17.09</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -22945,7 +23086,7 @@
       </c>
       <c r="L99">
         <f t="shared" ca="1" si="7"/>
-        <v>17.010000000000002</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -22983,11 +23124,11 @@
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="7"/>
-        <v>15.93</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -23029,7 +23170,7 @@
       </c>
       <c r="L101">
         <f t="shared" ca="1" si="7"/>
-        <v>15.37</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -23067,11 +23208,11 @@
       </c>
       <c r="K102">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L102">
         <f t="shared" ca="1" si="7"/>
-        <v>19.690000000000001</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -23113,7 +23254,7 @@
       </c>
       <c r="L103">
         <f t="shared" ca="1" si="7"/>
-        <v>19.28</v>
+        <v>19.63</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -23151,11 +23292,11 @@
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L104">
         <f t="shared" ca="1" si="7"/>
-        <v>17.78</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -23193,11 +23334,11 @@
       </c>
       <c r="K105">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L105">
         <f t="shared" ca="1" si="7"/>
-        <v>20.97</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -23235,11 +23376,11 @@
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="7"/>
-        <v>20.97</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -23277,11 +23418,11 @@
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L107">
         <f t="shared" ca="1" si="7"/>
-        <v>20.97</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -23319,11 +23460,11 @@
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L108">
         <f t="shared" ca="1" si="7"/>
-        <v>20.97</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="9097" spans="10:10" x14ac:dyDescent="0.25">
@@ -23370,7 +23511,7 @@
       </c>
       <c r="B2" s="31">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45204</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>323</v>
@@ -23382,7 +23523,7 @@
       </c>
       <c r="B3" s="33">
         <f ca="1">NOW()</f>
-        <v>45072.247705902781</v>
+        <v>45204.855035416665</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>325</v>
@@ -23406,7 +23547,7 @@
       </c>
       <c r="B5" s="32">
         <f ca="1">MONTH(B2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>329</v>
@@ -23418,7 +23559,7 @@
       </c>
       <c r="B6" s="32">
         <f ca="1">DAY(B2)</f>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>331</v>
@@ -23430,7 +23571,7 @@
       </c>
       <c r="B7" s="32">
         <f ca="1">HOUR(B3)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>333</v>
@@ -23442,7 +23583,7 @@
       </c>
       <c r="B8" s="32">
         <f ca="1">MINUTE(B3)</f>
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>335</v>
@@ -23454,7 +23595,7 @@
       </c>
       <c r="B9" s="32">
         <f ca="1">SECOND(B3)</f>
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>337</v>
@@ -23466,7 +23607,7 @@
       </c>
       <c r="B10" s="31">
         <f ca="1">EDATE(B2,B5)</f>
-        <v>45225</v>
+        <v>45509</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>339</v>
@@ -23478,7 +23619,7 @@
       </c>
       <c r="B11" s="31">
         <f ca="1">EOMONTH(B2,B5)</f>
-        <v>45230</v>
+        <v>45535</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>341</v>
@@ -23520,7 +23661,7 @@
       </c>
       <c r="B14" s="31">
         <f ca="1">WORKDAY(B2,B6)</f>
-        <v>45110</v>
+        <v>45211</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>347</v>
@@ -23532,7 +23673,7 @@
       </c>
       <c r="B15" s="31">
         <f ca="1">WORKDAY.INTL(B2,B6,1)</f>
-        <v>45110</v>
+        <v>45211</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>349</v>
@@ -23544,7 +23685,7 @@
       </c>
       <c r="B16" s="32">
         <f ca="1">NETWORKDAYS(B2,B10)</f>
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>351</v>
@@ -23556,7 +23697,7 @@
       </c>
       <c r="B17" s="32">
         <f ca="1">NETWORKDAYS.INTL(B2,B10,1)</f>
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>353</v>
@@ -23568,7 +23709,7 @@
       </c>
       <c r="B18" s="35">
         <f ca="1">DATE(B4,B5,B6)</f>
-        <v>45072</v>
+        <v>45204</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>355</v>
@@ -23580,7 +23721,7 @@
       </c>
       <c r="B19" s="36">
         <f ca="1">TIME(B7,B8,B9)</f>
-        <v>0.24770833333333334</v>
+        <v>0.85503472222222221</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>357</v>
@@ -23592,7 +23733,7 @@
       </c>
       <c r="B20" s="32">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>359</v>
@@ -23604,7 +23745,7 @@
       </c>
       <c r="B21" s="32">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>359</v>
@@ -23616,7 +23757,7 @@
       </c>
       <c r="B22" s="32">
         <f ca="1">_xlfn.DAYS(B10,B2)</f>
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>362</v>
@@ -23628,7 +23769,7 @@
       </c>
       <c r="B23" s="32">
         <f ca="1">DAYS360(B2,B10,FALSE)</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>364</v>
@@ -23640,7 +23781,7 @@
       </c>
       <c r="B24" s="32">
         <f ca="1">DATEDIF(B2,B11,"D")</f>
-        <v>158</v>
+        <v>331</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>366</v>
